--- a/TextConsoleRPG_Team10/Resources/Stories/RecruitParty.xlsx
+++ b/TextConsoleRPG_Team10/Resources/Stories/RecruitParty.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SpartaStudy\TextConsoleRPG_Team10\TextConsoleRPG_Team10\Resources\Stories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\공부\NBC\TextConsoleRPG_Team10\TextConsoleRPG_Team10\Resources\Stories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17E5BF4-3E69-4FB0-A361-26E5886B5011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8C63AD-DB75-4DA1-809F-1FDAFBA3F58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15255" yWindow="2550" windowWidth="12585" windowHeight="10965" xr2:uid="{D862F205-6333-40C1-B15B-98DE5BDA01B2}"/>
+    <workbookView xWindow="0" yWindow="1470" windowWidth="28800" windowHeight="14730" xr2:uid="{D862F205-6333-40C1-B15B-98DE5BDA01B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,34 +70,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"어디선가 철이 긁히는 소리.. 철장이 흔들리는 소리가 들려온다.\n몬스터인가? 아니 소리가 다르다.\n무엇가에 홀린 듯 소리가 있는 곳으로 걸어가고 있다.\n"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>System</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"아직 내가 죽을 때가 아닌가보군? 이봐 여기야!"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"이끌려 들어간 곳에는 기사단의 사람이 갇혀 있었다.\n조사대의 일원인가?"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"지원인가? 바깥의 상황은 어떤가?"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"우리는 상황을 주고 받았다."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"과연 그런 상황인건가…\n자네도 알다시피 나는 지금 힘을 잃었네. 그런 나라도 괜찮다면 자네에게 힘이 되어주고 싶네."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Recruit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,108 +82,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"이제부터 내 검은 자네와 함께할걸세.\n나의 이름은 "</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"그대의 여정이 성공하길 빌겠네."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"몬스터의 위장? 아니면 진짜 사람? 뭐든 좋아. 나를 여기서 꺼내줘!"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"이끌려 들어간 곳에는 한명의 마법사가 갇혀 있었다.\n조사대의 일원인가?"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"가까이 다가오지마. 거기서서 이야기해."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"마법사의 긴장을 풀기 위해 떨어진 상태에서 이야기를 주고 받았다.\n마법사는 상황을 이해했다."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"과연 그런 상황이란 건가..\n당신에게 판단을 맡길게, 나는 지금 힘을 크게 잃었어.\n내가 당신에 여정에 도움이 된다면 기꺼이 협력하겠지만 아니라면 나를 이곳에 두고가.\n짐덩어리가 되는 취미는 없어."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"진짜 나를 대려간다고?\n뭐... 생각이 있겠지.\n앞으로 잘부탁하지. 내이름은"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"현명한 판단이야. 나중에 보자고."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Archer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"오! 사람이다, 사람이야! 여기야 여기!"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"나는 흥분한 무명의 Archer를 진정시키고 설명을 진행했다."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"그래 오히려 여기에 있는 게 안전할 수도 있다는 거지?\n이봐, 네가 봤을 때 나는 전력에 도움이 돼?\n그렇다면 널 위해 활시위를 당겨주지."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"좋았어! 가만히 있는 건 내 성미에 안 맞아\n앞으로 잘부탁해. 내이름은"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"아쉽네.. 꼭 성공하길 빌게."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Priest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"그분의 은총이 함께 하시길.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"정신차려보니까 여기에 갇혀있었단 말이지. 나 좀 꺼내줘!"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"발길이 닿은 곳에는 한 명의 모험가가 있었다."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"마음이 이끄는 대로 도달한 곳에는 한 명의 사제가 기도 중이었다."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"혹시 상황을 알려주실 수 있으시겠습니까?\n정신을 차려보니 이곳에 갇혀있었습니다."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"나는 천천히 상황을 설명한다."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"그런…\n제가 도움이 안 될수도 있겠지만 저를 데려가 주셨으면 합니다.\n그분을 모시는 몸으로, 위험 때문에 뒤로 물러날 생각은 없습니다."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"당신에 결단에 감사를.\n앞으로 잘부드탁립니다. 제 이름은"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"제 안전을 걱정해 주시는 건가요?\n상냥한 분. 당신의 앞날에 그분의 축복이 함께 하길."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>좋았어! 가만히 있는 건 내 성미에 안 맞아\n앞으로 잘부탁해. 내이름은</t>
+  </si>
+  <si>
+    <t>어디선가 철이 긁히는 소리.. 철장이 흔들리는 소리가 들려온다.\n몬스터인가? 아니 소리가 다르다.\n무엇가에 홀린 듯 소리가 있는 곳으로 걸어가고 있다.\n</t>
+  </si>
+  <si>
+    <t>아직 내가 죽을 때가 아닌가보군? 이봐 여기야!</t>
+  </si>
+  <si>
+    <t>이끌려 들어간 곳에는 기사단의 사람이 갇혀 있었다.\n조사대의 일원인가?</t>
+  </si>
+  <si>
+    <t>지원인가? 바깥의 상황은 어떤가?</t>
+  </si>
+  <si>
+    <t>우리는 상황을 주고 받았다.</t>
+  </si>
+  <si>
+    <t>과연 그런 상황인건가…\n자네도 알다시피 나는 지금 힘을 잃었네. 그런 나라도 괜찮다면 자네에게 힘이 되어주고 싶네.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이제부터 내 검은 자네와 함께할걸세.\n나의 이름은 </t>
+  </si>
+  <si>
+    <t>그대의 여정이 성공하길 빌겠네.</t>
+  </si>
+  <si>
+    <t>몬스터의 위장? 아니면 진짜 사람? 뭐든 좋아. 나를 여기서 꺼내줘!</t>
+  </si>
+  <si>
+    <t>이끌려 들어간 곳에는 한명의 마법사가 갇혀 있었다.\n조사대의 일원인가?</t>
+  </si>
+  <si>
+    <t>가까이 다가오지마. 거기서서 이야기해.</t>
+  </si>
+  <si>
+    <t>마법사의 긴장을 풀기 위해 떨어진 상태에서 이야기를 주고 받았다.\n마법사는 상황을 이해했다.</t>
+  </si>
+  <si>
+    <t>과연 그런 상황이란 건가..\n당신에게 판단을 맡길게, 나는 지금 힘을 크게 잃었어.\n내가 당신에 여정에 도움이 된다면 기꺼이 협력하겠지만 아니라면 나를 이곳에 두고가.\n짐덩어리가 되는 취미는 없어.</t>
+  </si>
+  <si>
+    <t>진짜 나를 대려간다고?\n뭐... 생각이 있겠지.\n앞으로 잘부탁하지. 내이름은</t>
+  </si>
+  <si>
+    <t>현명한 판단이야. 나중에 보자고.</t>
+  </si>
+  <si>
+    <t>오! 사람이다, 사람이야! 여기야 여기!</t>
+  </si>
+  <si>
+    <t>발길이 닿은 곳에는 한 명의 모험가가 있었다.</t>
+  </si>
+  <si>
+    <t>정신차려보니까 여기에 갇혀있었단 말이지. 나 좀 꺼내줘!</t>
+  </si>
+  <si>
+    <t>나는 흥분한 무명의 Archer를 진정시키고 설명을 진행했다.</t>
+  </si>
+  <si>
+    <t>그래 오히려 여기에 있는 게 안전할 수도 있다는 거지?\n이봐, 네가 봤을 때 나는 전력에 도움이 돼?\n그렇다면 널 위해 활시위를 당겨주지.</t>
+  </si>
+  <si>
+    <t>아쉽네.. 꼭 성공하길 빌게.</t>
+  </si>
+  <si>
+    <t>그분의 은총이 함께 하시길.</t>
+  </si>
+  <si>
+    <t>마음이 이끄는 대로 도달한 곳에는 한 명의 사제가 기도 중이었다.</t>
+  </si>
+  <si>
+    <t>혹시 상황을 알려주실 수 있으시겠습니까?\n정신을 차려보니 이곳에 갇혀있었습니다.</t>
+  </si>
+  <si>
+    <t>나는 천천히 상황을 설명한다.</t>
+  </si>
+  <si>
+    <t>그런…\n제가 도움이 안 될수도 있겠지만 저를 데려가 주셨으면 합니다.\n그분을 모시는 몸으로, 위험 때문에 뒤로 물러날 생각은 없습니다.</t>
+  </si>
+  <si>
+    <t>당신에 결단에 감사를.\n앞으로 잘부드탁립니다. 제 이름은</t>
+  </si>
+  <si>
+    <t>제 안전을 걱정해 주시는 건가요?\n상냥한 분. 당신의 앞날에 그분의 축복이 함께 하길.</t>
   </si>
 </sst>
 </file>
@@ -593,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B446099-FE4B-4FF4-BAAD-00B2144C5636}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -627,10 +598,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -647,7 +618,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -661,10 +632,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -681,7 +652,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -695,10 +666,10 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -715,7 +686,7 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -726,13 +697,13 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -743,13 +714,13 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -757,16 +728,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -774,16 +745,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -791,16 +762,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -808,16 +779,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -825,16 +796,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -842,16 +813,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -859,16 +830,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -876,16 +847,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -893,16 +864,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -910,16 +881,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -927,16 +898,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -944,16 +915,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -961,16 +932,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -978,16 +949,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -995,16 +966,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1012,13 +983,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
         <v>37</v>
@@ -1029,13 +1000,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
         <v>38</v>
@@ -1046,13 +1017,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
         <v>39</v>
@@ -1063,13 +1034,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
         <v>40</v>
@@ -1080,13 +1051,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
         <v>41</v>
@@ -1097,13 +1068,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E30" t="s">
         <v>42</v>
